--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -468,13 +468,13 @@
         <v>0.0002024</v>
       </c>
       <c r="C2" t="n">
-        <v>135.7166405236379</v>
+        <v>135.2542551415028</v>
       </c>
       <c r="D2" t="n">
         <v>0.0004048</v>
       </c>
       <c r="E2" t="n">
-        <v>35.6432063296342</v>
+        <v>35.52177024401006</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -490,13 +490,13 @@
         <v>366.4076825499989</v>
       </c>
       <c r="C3" t="n">
-        <v>127.9004343606762</v>
+        <v>127.5618720305127</v>
       </c>
       <c r="D3" t="n">
         <v>732.8145554999977</v>
       </c>
       <c r="E3" t="n">
-        <v>35.29999989412955</v>
+        <v>35.2065580674566</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         <v>1249.966295799999</v>
       </c>
       <c r="C4" t="n">
-        <v>121.8873278766184</v>
+        <v>121.5646827038355</v>
       </c>
       <c r="D4" t="n">
         <v>1034.302671000002</v>
       </c>
       <c r="E4" t="n">
-        <v>36.73134610838704</v>
+        <v>36.63411539771231</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -534,13 +534,13 @@
         <v>2089.746297399998</v>
       </c>
       <c r="C5" t="n">
-        <v>118.5028859895555</v>
+        <v>118.0991477153764</v>
       </c>
       <c r="D5" t="n">
         <v>645.2573321999971</v>
       </c>
       <c r="E5" t="n">
-        <v>32.60832400748983</v>
+        <v>32.49722773883173</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -556,13 +556,13 @@
         <v>2601.575416149997</v>
       </c>
       <c r="C6" t="n">
-        <v>117.2432415178567</v>
+        <v>116.8437948411423</v>
       </c>
       <c r="D6" t="n">
         <v>378.4009052999997</v>
       </c>
       <c r="E6" t="n">
-        <v>32.96264777255319</v>
+        <v>32.85034432599208</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -578,13 +578,13 @@
         <v>3564.322872599997</v>
       </c>
       <c r="C7" t="n">
-        <v>115.0490264947756</v>
+        <v>114.6530333470338</v>
       </c>
       <c r="D7" t="n">
         <v>1547.094007600001</v>
       </c>
       <c r="E7" t="n">
-        <v>34.37338588416402</v>
+        <v>34.25507436350607</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>4998.396824699998</v>
       </c>
       <c r="C8" t="n">
-        <v>115.281771721351</v>
+        <v>114.8890077547149</v>
       </c>
       <c r="D8" t="n">
         <v>1321.053896599999</v>
       </c>
       <c r="E8" t="n">
-        <v>33.01556095947831</v>
+        <v>32.90307723816194</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -622,13 +622,13 @@
         <v>5690.562386499997</v>
       </c>
       <c r="C9" t="n">
-        <v>102.0665522640262</v>
+        <v>101.7963742154606</v>
       </c>
       <c r="D9" t="n">
         <v>63.27722700000004</v>
       </c>
       <c r="E9" t="n">
-        <v>42.13223102857316</v>
+        <v>42.02070375829202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -644,13 +644,13 @@
         <v>5785.136218799998</v>
       </c>
       <c r="C10" t="n">
-        <v>104.3340828862549</v>
+        <v>104.0579025089637</v>
       </c>
       <c r="D10" t="n">
         <v>125.8704375999999</v>
       </c>
       <c r="E10" t="n">
-        <v>39.64523114271181</v>
+        <v>39.54028715325127</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         <v>5903.290722749998</v>
       </c>
       <c r="C11" t="n">
-        <v>97.72098207227521</v>
+        <v>97.38463120977596</v>
       </c>
       <c r="D11" t="n">
         <v>110.4385702999998</v>
       </c>
       <c r="E11" t="n">
-        <v>38.00487285063671</v>
+        <v>37.87406192864831</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -688,13 +688,13 @@
         <v>5995.312617649998</v>
       </c>
       <c r="C12" t="n">
-        <v>95.41573916654198</v>
+        <v>95.08732283788767</v>
       </c>
       <c r="D12" t="n">
         <v>73.6052194999999</v>
       </c>
       <c r="E12" t="n">
-        <v>40.09349702108134</v>
+        <v>39.95549715638823</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         <v>6092.500318799998</v>
       </c>
       <c r="C13" t="n">
-        <v>97.68646232780517</v>
+        <v>97.35023028058572</v>
       </c>
       <c r="D13" t="n">
         <v>120.7701828000003</v>
       </c>
       <c r="E13" t="n">
-        <v>37.60735642992655</v>
+        <v>37.47791374010414</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -732,13 +732,13 @@
         <v>6214.851637099999</v>
       </c>
       <c r="C14" t="n">
-        <v>97.66239646963973</v>
+        <v>97.3262472559324</v>
       </c>
       <c r="D14" t="n">
         <v>123.9324538</v>
       </c>
       <c r="E14" t="n">
-        <v>37.34134770340423</v>
+        <v>37.2128206026672</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         <v>6340.306508449999</v>
       </c>
       <c r="C15" t="n">
-        <v>97.16929376331323</v>
+        <v>96.83484178511307</v>
       </c>
       <c r="D15" t="n">
         <v>126.9772889000003</v>
       </c>
       <c r="E15" t="n">
-        <v>37.54753258147421</v>
+        <v>37.4182958024255</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -776,13 +776,13 @@
         <v>6466.332944949998</v>
       </c>
       <c r="C16" t="n">
-        <v>96.73426482175391</v>
+        <v>96.40131019199013</v>
       </c>
       <c r="D16" t="n">
         <v>125.0755840999997</v>
       </c>
       <c r="E16" t="n">
-        <v>37.7763665493563</v>
+        <v>37.64634213493149</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -798,13 +798,13 @@
         <v>6545.248792549997</v>
       </c>
       <c r="C17" t="n">
-        <v>83.67404149658543</v>
+        <v>83.4525498448574</v>
       </c>
       <c r="D17" t="n">
         <v>32.75611110000006</v>
       </c>
       <c r="E17" t="n">
-        <v>49.90750713815741</v>
+        <v>49.77539811136791</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         <v>6708.740035149997</v>
       </c>
       <c r="C18" t="n">
-        <v>95.7977965579226</v>
+        <v>95.46806520632856</v>
       </c>
       <c r="D18" t="n">
         <v>294.2263741000006</v>
       </c>
       <c r="E18" t="n">
-        <v>37.11575547993499</v>
+        <v>36.98800485664761</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -842,13 +842,13 @@
         <v>6881.601638049998</v>
       </c>
       <c r="C19" t="n">
-        <v>92.08633670333349</v>
+        <v>91.76938001585714</v>
       </c>
       <c r="D19" t="n">
         <v>51.49683169999987</v>
       </c>
       <c r="E19" t="n">
-        <v>39.05043521888565</v>
+        <v>38.91602552213158</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -864,13 +864,13 @@
         <v>6962.630535749998</v>
       </c>
       <c r="C20" t="n">
-        <v>94.2017740303005</v>
+        <v>93.88082942752555</v>
       </c>
       <c r="D20" t="n">
         <v>110.5609637000001</v>
       </c>
       <c r="E20" t="n">
-        <v>36.29662562241418</v>
+        <v>36.17296334309543</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         <v>7078.221018299998</v>
       </c>
       <c r="C21" t="n">
-        <v>94.55450076032623</v>
+        <v>94.23235442073239</v>
       </c>
       <c r="D21" t="n">
         <v>120.6200014</v>
       </c>
       <c r="E21" t="n">
-        <v>35.85889202733107</v>
+        <v>35.73672110246123</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>7196.237745699998</v>
       </c>
       <c r="C22" t="n">
-        <v>93.56010646671884</v>
+        <v>93.24134801960207</v>
       </c>
       <c r="D22" t="n">
         <v>115.4134534000002</v>
       </c>
       <c r="E22" t="n">
-        <v>36.41839593188202</v>
+        <v>36.29431878220648</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -930,13 +930,13 @@
         <v>7257.773124499999</v>
       </c>
       <c r="C23" t="n">
-        <v>82.11453833916474</v>
+        <v>81.83190409615561</v>
       </c>
       <c r="D23" t="n">
         <v>7.657304200000008</v>
       </c>
       <c r="E23" t="n">
-        <v>47.32952902918007</v>
+        <v>47.16662309461962</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -952,13 +952,13 @@
         <v>7398.520257249998</v>
       </c>
       <c r="C24" t="n">
-        <v>92.26443113487495</v>
+        <v>91.95008704204169</v>
       </c>
       <c r="D24" t="n">
         <v>273.8369612999995</v>
       </c>
       <c r="E24" t="n">
-        <v>36.36111158714824</v>
+        <v>36.23722960472359</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -974,13 +974,13 @@
         <v>7597.034988449998</v>
       </c>
       <c r="C25" t="n">
-        <v>88.98580121075068</v>
+        <v>88.6795164154824</v>
       </c>
       <c r="D25" t="n">
         <v>123.1925010999999</v>
       </c>
       <c r="E25" t="n">
-        <v>37.57393310972936</v>
+        <v>37.44460546134778</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -996,13 +996,13 @@
         <v>7662.417309999998</v>
       </c>
       <c r="C26" t="n">
-        <v>85.99594730985659</v>
+        <v>85.70295988542935</v>
       </c>
       <c r="D26" t="n">
         <v>7.572141999999981</v>
       </c>
       <c r="E26" t="n">
-        <v>39.56660231840263</v>
+        <v>39.43179925768586</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>7717.949312349998</v>
       </c>
       <c r="C27" t="n">
-        <v>81.22208049583844</v>
+        <v>80.94251804927447</v>
       </c>
       <c r="D27" t="n">
         <v>103.4918627000001</v>
       </c>
       <c r="E27" t="n">
-        <v>41.72896775432044</v>
+        <v>41.58533867899055</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         <v>7772.332123199998</v>
       </c>
       <c r="C28" t="n">
-        <v>79.60262311600562</v>
+        <v>79.33141769000598</v>
       </c>
       <c r="D28" t="n">
         <v>5.273759</v>
       </c>
       <c r="E28" t="n">
-        <v>41.3328981428303</v>
+        <v>41.19207732801506</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1062,13 +1062,13 @@
         <v>7797.218913449998</v>
       </c>
       <c r="C29" t="n">
-        <v>73.61498030166234</v>
+        <v>73.36417472125359</v>
       </c>
       <c r="D29" t="n">
         <v>44.4998215</v>
       </c>
       <c r="E29" t="n">
-        <v>45.06896219395171</v>
+        <v>44.91541264228229</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1084,13 +1084,13 @@
         <v>7832.233515299998</v>
       </c>
       <c r="C30" t="n">
-        <v>72.31489845384607</v>
+        <v>72.06852224068138</v>
       </c>
       <c r="D30" t="n">
         <v>25.52938220000003</v>
       </c>
       <c r="E30" t="n">
-        <v>43.85983875455639</v>
+        <v>43.71040867564592</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1106,13 +1106,13 @@
         <v>7847.376476799997</v>
       </c>
       <c r="C31" t="n">
-        <v>72.60241809846158</v>
+        <v>72.35506230843563</v>
       </c>
       <c r="D31" t="n">
         <v>4.756540799999994</v>
       </c>
       <c r="E31" t="n">
-        <v>42.79589482928693</v>
+        <v>42.65008959782743</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1128,13 +1128,13 @@
         <v>7862.023453049997</v>
       </c>
       <c r="C32" t="n">
-        <v>72.97789681549948</v>
+        <v>72.7292617728381</v>
       </c>
       <c r="D32" t="n">
         <v>24.53741170000005</v>
       </c>
       <c r="E32" t="n">
-        <v>40.13250095616597</v>
+        <v>39.99576988384457</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1150,13 +1150,13 @@
         <v>7880.747773099996</v>
       </c>
       <c r="C33" t="n">
-        <v>69.57698765383225</v>
+        <v>69.33993947831007</v>
       </c>
       <c r="D33" t="n">
         <v>12.91122840000001</v>
       </c>
       <c r="E33" t="n">
-        <v>42.99451635005565</v>
+        <v>42.84803441684884</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         <v>7909.767836749997</v>
       </c>
       <c r="C34" t="n">
-        <v>70.98043326390334</v>
+        <v>70.73612206847113</v>
       </c>
       <c r="D34" t="n">
         <v>45.12889889999996</v>
       </c>
       <c r="E34" t="n">
-        <v>40.94955206187876</v>
+        <v>40.80860569741443</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1194,13 +1194,13 @@
         <v>7974.042088299997</v>
       </c>
       <c r="C35" t="n">
-        <v>74.40364916996506</v>
+        <v>74.15015660176589</v>
       </c>
       <c r="D35" t="n">
         <v>83.41960419999998</v>
       </c>
       <c r="E35" t="n">
-        <v>34.55080053597435</v>
+        <v>34.43308626713258</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -468,13 +468,13 @@
         <v>0.0002024</v>
       </c>
       <c r="C2" t="n">
-        <v>135.7166405236379</v>
+        <v>44.7864913728005</v>
       </c>
       <c r="D2" t="n">
         <v>0.0004048</v>
       </c>
       <c r="E2" t="n">
-        <v>35.6432063296342</v>
+        <v>11.76225808877928</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -490,13 +490,13 @@
         <v>366.4076825499989</v>
       </c>
       <c r="C3" t="n">
-        <v>127.9004343606762</v>
+        <v>42.20714333902308</v>
       </c>
       <c r="D3" t="n">
         <v>732.8145554999977</v>
       </c>
       <c r="E3" t="n">
-        <v>35.29999989412955</v>
+        <v>11.64899996506283</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         <v>1249.966295799999</v>
       </c>
       <c r="C4" t="n">
-        <v>121.8873278766184</v>
+        <v>40.22281819928403</v>
       </c>
       <c r="D4" t="n">
         <v>1034.302671000002</v>
       </c>
       <c r="E4" t="n">
-        <v>36.73134610838704</v>
+        <v>12.12134421576753</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -534,13 +534,13 @@
         <v>2089.746297399998</v>
       </c>
       <c r="C5" t="n">
-        <v>118.5028859895555</v>
+        <v>39.1059523765532</v>
       </c>
       <c r="D5" t="n">
         <v>645.2573321999971</v>
       </c>
       <c r="E5" t="n">
-        <v>32.60832400748983</v>
+        <v>10.76074692247167</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -556,13 +556,13 @@
         <v>2601.575416149997</v>
       </c>
       <c r="C6" t="n">
-        <v>117.2432415178567</v>
+        <v>38.69026970089305</v>
       </c>
       <c r="D6" t="n">
         <v>378.4009052999997</v>
       </c>
       <c r="E6" t="n">
-        <v>32.96264777255319</v>
+        <v>10.87767376494251</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -578,13 +578,13 @@
         <v>3564.322872599997</v>
       </c>
       <c r="C7" t="n">
-        <v>115.0490264947756</v>
+        <v>37.96617874327627</v>
       </c>
       <c r="D7" t="n">
         <v>1547.094007600001</v>
       </c>
       <c r="E7" t="n">
-        <v>34.37338588416402</v>
+        <v>11.34321734177428</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>4998.396824699998</v>
       </c>
       <c r="C8" t="n">
-        <v>115.281771721351</v>
+        <v>38.04298466804499</v>
       </c>
       <c r="D8" t="n">
         <v>1321.053896599999</v>
       </c>
       <c r="E8" t="n">
-        <v>33.01556095947831</v>
+        <v>10.89513511662759</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -622,13 +622,13 @@
         <v>5690.562386499997</v>
       </c>
       <c r="C9" t="n">
-        <v>102.0665522640262</v>
+        <v>33.68196224712769</v>
       </c>
       <c r="D9" t="n">
         <v>63.27722700000004</v>
       </c>
       <c r="E9" t="n">
-        <v>42.13223102857316</v>
+        <v>13.90363623942916</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -644,13 +644,13 @@
         <v>5785.136218799998</v>
       </c>
       <c r="C10" t="n">
-        <v>104.3340828862549</v>
+        <v>34.43024735246417</v>
       </c>
       <c r="D10" t="n">
         <v>125.8704375999999</v>
       </c>
       <c r="E10" t="n">
-        <v>39.64523114271181</v>
+        <v>13.08292627709478</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         <v>5903.290722749998</v>
       </c>
       <c r="C11" t="n">
-        <v>97.72098207227521</v>
+        <v>32.24792408385092</v>
       </c>
       <c r="D11" t="n">
         <v>110.4385702999998</v>
       </c>
       <c r="E11" t="n">
-        <v>38.00487285063671</v>
+        <v>12.54160804071013</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -688,13 +688,13 @@
         <v>5995.312617649998</v>
       </c>
       <c r="C12" t="n">
-        <v>95.41573916654198</v>
+        <v>31.48719392495932</v>
       </c>
       <c r="D12" t="n">
         <v>73.6052194999999</v>
       </c>
       <c r="E12" t="n">
-        <v>40.09349702108134</v>
+        <v>13.23085401695682</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         <v>6092.500318799998</v>
       </c>
       <c r="C13" t="n">
-        <v>97.68646232780517</v>
+        <v>32.23653256817585</v>
       </c>
       <c r="D13" t="n">
         <v>120.7701828000003</v>
       </c>
       <c r="E13" t="n">
-        <v>37.60735642992655</v>
+        <v>12.4104276218759</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -732,13 +732,13 @@
         <v>6214.851637099999</v>
       </c>
       <c r="C14" t="n">
-        <v>97.66239646963973</v>
+        <v>32.22859083498096</v>
       </c>
       <c r="D14" t="n">
         <v>123.9324538</v>
       </c>
       <c r="E14" t="n">
-        <v>37.34134770340423</v>
+        <v>12.32264474212352</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         <v>6340.306508449999</v>
       </c>
       <c r="C15" t="n">
-        <v>97.16929376331323</v>
+        <v>32.0658669418933</v>
       </c>
       <c r="D15" t="n">
         <v>126.9772889000003</v>
       </c>
       <c r="E15" t="n">
-        <v>37.54753258147421</v>
+        <v>12.39068575188652</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -776,13 +776,13 @@
         <v>6466.332944949998</v>
       </c>
       <c r="C16" t="n">
-        <v>96.73426482175391</v>
+        <v>31.92230739117874</v>
       </c>
       <c r="D16" t="n">
         <v>125.0755840999997</v>
       </c>
       <c r="E16" t="n">
-        <v>37.7763665493563</v>
+        <v>12.46620096128736</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -798,13 +798,13 @@
         <v>6545.248792549997</v>
       </c>
       <c r="C17" t="n">
-        <v>83.67404149658543</v>
+        <v>27.61243369387324</v>
       </c>
       <c r="D17" t="n">
         <v>32.75611110000006</v>
       </c>
       <c r="E17" t="n">
-        <v>49.90750713815741</v>
+        <v>16.46947735559199</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         <v>6708.740035149997</v>
       </c>
       <c r="C18" t="n">
-        <v>95.7977965579226</v>
+        <v>31.61327286411501</v>
       </c>
       <c r="D18" t="n">
         <v>294.2263741000006</v>
       </c>
       <c r="E18" t="n">
-        <v>37.11575547993499</v>
+        <v>12.24819930837849</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -842,13 +842,13 @@
         <v>6881.601638049998</v>
       </c>
       <c r="C19" t="n">
-        <v>92.08633670333349</v>
+        <v>30.38849111209992</v>
       </c>
       <c r="D19" t="n">
         <v>51.49683169999987</v>
       </c>
       <c r="E19" t="n">
-        <v>39.05043521888565</v>
+        <v>12.88664362223227</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -864,13 +864,13 @@
         <v>6962.630535749998</v>
       </c>
       <c r="C20" t="n">
-        <v>94.2017740303005</v>
+        <v>31.08658542999967</v>
       </c>
       <c r="D20" t="n">
         <v>110.5609637000001</v>
       </c>
       <c r="E20" t="n">
-        <v>36.29662562241418</v>
+        <v>11.97788645539652</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         <v>7078.221018299998</v>
       </c>
       <c r="C21" t="n">
-        <v>94.55450076032623</v>
+        <v>31.20298525090706</v>
       </c>
       <c r="D21" t="n">
         <v>120.6200014</v>
       </c>
       <c r="E21" t="n">
-        <v>35.85889202733107</v>
+        <v>11.8334343690192</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>7196.237745699998</v>
       </c>
       <c r="C22" t="n">
-        <v>93.56010646671884</v>
+        <v>30.87483513401672</v>
       </c>
       <c r="D22" t="n">
         <v>115.4134534000002</v>
       </c>
       <c r="E22" t="n">
-        <v>36.41839593188202</v>
+        <v>12.01807065752113</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -930,13 +930,13 @@
         <v>7257.773124499999</v>
       </c>
       <c r="C23" t="n">
-        <v>82.11453833916474</v>
+        <v>27.09779765192447</v>
       </c>
       <c r="D23" t="n">
         <v>7.657304200000008</v>
       </c>
       <c r="E23" t="n">
-        <v>47.32952902918007</v>
+        <v>15.61874457962952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -952,13 +952,13 @@
         <v>7398.520257249998</v>
       </c>
       <c r="C24" t="n">
-        <v>92.26443113487495</v>
+        <v>30.44726227450931</v>
       </c>
       <c r="D24" t="n">
         <v>273.8369612999995</v>
       </c>
       <c r="E24" t="n">
-        <v>36.36111158714824</v>
+        <v>11.99916682375898</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -974,13 +974,13 @@
         <v>7597.034988449998</v>
       </c>
       <c r="C25" t="n">
-        <v>88.98580121075068</v>
+        <v>29.36531439954846</v>
       </c>
       <c r="D25" t="n">
         <v>123.1925010999999</v>
       </c>
       <c r="E25" t="n">
-        <v>37.57393310972936</v>
+        <v>12.3993979262106</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -996,13 +996,13 @@
         <v>7662.417309999998</v>
       </c>
       <c r="C26" t="n">
-        <v>85.99594730985659</v>
+        <v>28.37866261225277</v>
       </c>
       <c r="D26" t="n">
         <v>7.572141999999981</v>
       </c>
       <c r="E26" t="n">
-        <v>39.56660231840263</v>
+        <v>13.05697876507285</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>7717.949312349998</v>
       </c>
       <c r="C27" t="n">
-        <v>81.22208049583844</v>
+        <v>26.80328656362664</v>
       </c>
       <c r="D27" t="n">
         <v>103.4918627000001</v>
       </c>
       <c r="E27" t="n">
-        <v>41.72896775432044</v>
+        <v>13.77055935892576</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         <v>7772.332123199998</v>
       </c>
       <c r="C28" t="n">
-        <v>79.60262311600562</v>
+        <v>26.26886562828147</v>
       </c>
       <c r="D28" t="n">
         <v>5.273759</v>
       </c>
       <c r="E28" t="n">
-        <v>41.3328981428303</v>
+        <v>13.63985638713409</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1062,13 +1062,13 @@
         <v>7797.218913449998</v>
       </c>
       <c r="C29" t="n">
-        <v>73.61498030166234</v>
+        <v>24.29294349954849</v>
       </c>
       <c r="D29" t="n">
         <v>44.4998215</v>
       </c>
       <c r="E29" t="n">
-        <v>45.06896219395171</v>
+        <v>14.87275752400409</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1084,13 +1084,13 @@
         <v>7832.233515299998</v>
       </c>
       <c r="C30" t="n">
-        <v>72.31489845384607</v>
+        <v>23.86391648976927</v>
       </c>
       <c r="D30" t="n">
         <v>25.52938220000003</v>
       </c>
       <c r="E30" t="n">
-        <v>43.85983875455639</v>
+        <v>14.47374678900361</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1106,13 +1106,13 @@
         <v>7847.376476799997</v>
       </c>
       <c r="C31" t="n">
-        <v>72.60241809846158</v>
+        <v>23.9587979724925</v>
       </c>
       <c r="D31" t="n">
         <v>4.756540799999994</v>
       </c>
       <c r="E31" t="n">
-        <v>42.79589482928693</v>
+        <v>14.12264529366465</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1128,13 +1128,13 @@
         <v>7862.023453049997</v>
       </c>
       <c r="C32" t="n">
-        <v>72.97789681549948</v>
+        <v>24.08270594911482</v>
       </c>
       <c r="D32" t="n">
         <v>24.53741170000005</v>
       </c>
       <c r="E32" t="n">
-        <v>40.13250095616597</v>
+        <v>13.24372531553481</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1150,13 +1150,13 @@
         <v>7880.747773099996</v>
       </c>
       <c r="C33" t="n">
-        <v>69.57698765383225</v>
+        <v>22.9604059257647</v>
       </c>
       <c r="D33" t="n">
         <v>12.91122840000001</v>
       </c>
       <c r="E33" t="n">
-        <v>42.99451635005565</v>
+        <v>14.18819039551828</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         <v>7909.767836749997</v>
       </c>
       <c r="C34" t="n">
-        <v>70.98043326390334</v>
+        <v>23.42354297708812</v>
       </c>
       <c r="D34" t="n">
         <v>45.12889889999996</v>
       </c>
       <c r="E34" t="n">
-        <v>40.94955206187876</v>
+        <v>13.51335218042002</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1194,13 +1194,13 @@
         <v>7974.042088299997</v>
       </c>
       <c r="C35" t="n">
-        <v>74.40364916996506</v>
+        <v>24.55320422608823</v>
       </c>
       <c r="D35" t="n">
         <v>83.41960419999998</v>
       </c>
       <c r="E35" t="n">
-        <v>34.55080053597435</v>
+        <v>11.40176417687155</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -468,13 +468,13 @@
         <v>0.0002024</v>
       </c>
       <c r="C2" t="n">
-        <v>135.2542551415028</v>
+        <v>44.63390419669591</v>
       </c>
       <c r="D2" t="n">
         <v>0.0004048</v>
       </c>
       <c r="E2" t="n">
-        <v>35.52177024401006</v>
+        <v>11.72218418052332</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -490,13 +490,13 @@
         <v>366.4076825499989</v>
       </c>
       <c r="C3" t="n">
-        <v>127.5618720305127</v>
+        <v>42.09541777006915</v>
       </c>
       <c r="D3" t="n">
         <v>732.8145554999977</v>
       </c>
       <c r="E3" t="n">
-        <v>35.2065580674566</v>
+        <v>11.61816416226076</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         <v>1249.966295799999</v>
       </c>
       <c r="C4" t="n">
-        <v>121.5646827038355</v>
+        <v>40.11634529226569</v>
       </c>
       <c r="D4" t="n">
         <v>1034.302671000002</v>
       </c>
       <c r="E4" t="n">
-        <v>36.63411539771231</v>
+        <v>12.08925808124486</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -534,13 +534,13 @@
         <v>2089.746297399998</v>
       </c>
       <c r="C5" t="n">
-        <v>118.0991477153764</v>
+        <v>38.97271874607411</v>
       </c>
       <c r="D5" t="n">
         <v>645.2573321999971</v>
       </c>
       <c r="E5" t="n">
-        <v>32.49722773883173</v>
+        <v>10.7240851538145</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -556,13 +556,13 @@
         <v>2601.575416149997</v>
       </c>
       <c r="C6" t="n">
-        <v>116.8437948411423</v>
+        <v>38.55845229757733</v>
       </c>
       <c r="D6" t="n">
         <v>378.4009052999997</v>
       </c>
       <c r="E6" t="n">
-        <v>32.85034432599208</v>
+        <v>10.84061362757735</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -578,13 +578,13 @@
         <v>3564.322872599997</v>
       </c>
       <c r="C7" t="n">
-        <v>114.6530333470338</v>
+        <v>37.83550100452149</v>
       </c>
       <c r="D7" t="n">
         <v>1547.094007600001</v>
       </c>
       <c r="E7" t="n">
-        <v>34.25507436350607</v>
+        <v>11.30417453995716</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>4998.396824699998</v>
       </c>
       <c r="C8" t="n">
-        <v>114.8890077547149</v>
+        <v>37.91337255905508</v>
       </c>
       <c r="D8" t="n">
         <v>1321.053896599999</v>
       </c>
       <c r="E8" t="n">
-        <v>32.90307723816194</v>
+        <v>10.85801548859319</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -622,13 +622,13 @@
         <v>5690.562386499997</v>
       </c>
       <c r="C9" t="n">
-        <v>101.7963742154606</v>
+        <v>33.59280349110104</v>
       </c>
       <c r="D9" t="n">
         <v>63.27722700000004</v>
       </c>
       <c r="E9" t="n">
-        <v>42.02070375829202</v>
+        <v>13.86683224023638</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -644,13 +644,13 @@
         <v>5785.136218799998</v>
       </c>
       <c r="C10" t="n">
-        <v>104.0579025089637</v>
+        <v>34.33910782795808</v>
       </c>
       <c r="D10" t="n">
         <v>125.8704375999999</v>
       </c>
       <c r="E10" t="n">
-        <v>39.54028715325127</v>
+        <v>13.04829476057281</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         <v>5903.290722749998</v>
       </c>
       <c r="C11" t="n">
-        <v>97.38463120977596</v>
+        <v>32.13692829922616</v>
       </c>
       <c r="D11" t="n">
         <v>110.4385702999998</v>
       </c>
       <c r="E11" t="n">
-        <v>37.87406192864831</v>
+        <v>12.49844043645396</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -688,13 +688,13 @@
         <v>5995.312617649998</v>
       </c>
       <c r="C12" t="n">
-        <v>95.08732283788767</v>
+        <v>31.37881653650339</v>
       </c>
       <c r="D12" t="n">
         <v>73.6052194999999</v>
       </c>
       <c r="E12" t="n">
-        <v>39.95549715638823</v>
+        <v>13.1853140616081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         <v>6092.500318799998</v>
       </c>
       <c r="C13" t="n">
-        <v>97.35023028058572</v>
+        <v>32.12557599259343</v>
       </c>
       <c r="D13" t="n">
         <v>120.7701828000003</v>
       </c>
       <c r="E13" t="n">
-        <v>37.47791374010414</v>
+        <v>12.3677115342345</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -732,13 +732,13 @@
         <v>6214.851637099999</v>
       </c>
       <c r="C14" t="n">
-        <v>97.3262472559324</v>
+        <v>32.11766159445752</v>
       </c>
       <c r="D14" t="n">
         <v>123.9324538</v>
       </c>
       <c r="E14" t="n">
-        <v>37.2128206026672</v>
+        <v>12.2802307988803</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         <v>6340.306508449999</v>
       </c>
       <c r="C15" t="n">
-        <v>96.83484178511307</v>
+        <v>31.95549778908725</v>
       </c>
       <c r="D15" t="n">
         <v>126.9772889000003</v>
       </c>
       <c r="E15" t="n">
-        <v>37.4182958024255</v>
+        <v>12.34803761480044</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -776,13 +776,13 @@
         <v>6466.332944949998</v>
       </c>
       <c r="C16" t="n">
-        <v>96.40131019199013</v>
+        <v>31.81243236335668</v>
       </c>
       <c r="D16" t="n">
         <v>125.0755840999997</v>
       </c>
       <c r="E16" t="n">
-        <v>37.64634213493149</v>
+        <v>12.42329290452718</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -798,13 +798,13 @@
         <v>6545.248792549997</v>
       </c>
       <c r="C17" t="n">
-        <v>83.4525498448574</v>
+        <v>27.53934144880299</v>
       </c>
       <c r="D17" t="n">
         <v>32.75611110000006</v>
       </c>
       <c r="E17" t="n">
-        <v>49.77539811136791</v>
+        <v>16.42588137675145</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         <v>6708.740035149997</v>
       </c>
       <c r="C18" t="n">
-        <v>95.46806520632856</v>
+        <v>31.50446151808898</v>
       </c>
       <c r="D18" t="n">
         <v>294.2263741000006</v>
       </c>
       <c r="E18" t="n">
-        <v>36.98800485664761</v>
+        <v>12.20604160269366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -842,13 +842,13 @@
         <v>6881.601638049998</v>
       </c>
       <c r="C19" t="n">
-        <v>91.76938001585714</v>
+        <v>30.28389540523272</v>
       </c>
       <c r="D19" t="n">
         <v>51.49683169999987</v>
       </c>
       <c r="E19" t="n">
-        <v>38.91602552213158</v>
+        <v>12.84228842230343</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -864,13 +864,13 @@
         <v>6962.630535749998</v>
       </c>
       <c r="C20" t="n">
-        <v>93.88082942752555</v>
+        <v>30.98067371108394</v>
       </c>
       <c r="D20" t="n">
         <v>110.5609637000001</v>
       </c>
       <c r="E20" t="n">
-        <v>36.17296334309543</v>
+        <v>11.93707790322133</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         <v>7078.221018299998</v>
       </c>
       <c r="C21" t="n">
-        <v>94.23235442073239</v>
+        <v>31.0966769588411</v>
       </c>
       <c r="D21" t="n">
         <v>120.6200014</v>
       </c>
       <c r="E21" t="n">
-        <v>35.73672110246123</v>
+        <v>11.79311796381216</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>7196.237745699998</v>
       </c>
       <c r="C22" t="n">
-        <v>93.24134801960207</v>
+        <v>30.76964484646818</v>
       </c>
       <c r="D22" t="n">
         <v>115.4134534000002</v>
       </c>
       <c r="E22" t="n">
-        <v>36.29431878220648</v>
+        <v>11.97712519812821</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -930,13 +930,13 @@
         <v>7257.773124499999</v>
       </c>
       <c r="C23" t="n">
-        <v>81.83190409615561</v>
+        <v>27.00452835173146</v>
       </c>
       <c r="D23" t="n">
         <v>7.657304200000008</v>
       </c>
       <c r="E23" t="n">
-        <v>47.16662309461962</v>
+        <v>15.56498562122457</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -952,13 +952,13 @@
         <v>7398.520257249998</v>
       </c>
       <c r="C24" t="n">
-        <v>91.95008704204169</v>
+        <v>30.34352872387434</v>
       </c>
       <c r="D24" t="n">
         <v>273.8369612999995</v>
       </c>
       <c r="E24" t="n">
-        <v>36.23722960472359</v>
+        <v>11.95828576955884</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -974,13 +974,13 @@
         <v>7597.034988449998</v>
       </c>
       <c r="C25" t="n">
-        <v>88.6795164154824</v>
+        <v>29.26424041710992</v>
       </c>
       <c r="D25" t="n">
         <v>123.1925010999999</v>
       </c>
       <c r="E25" t="n">
-        <v>37.44460546134778</v>
+        <v>12.35671980224467</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -996,13 +996,13 @@
         <v>7662.417309999998</v>
       </c>
       <c r="C26" t="n">
-        <v>85.70295988542935</v>
+        <v>28.28197676219177</v>
       </c>
       <c r="D26" t="n">
         <v>7.572141999999981</v>
       </c>
       <c r="E26" t="n">
-        <v>39.43179925768586</v>
+        <v>13.01249375503631</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>7717.949312349998</v>
       </c>
       <c r="C27" t="n">
-        <v>80.94251804927447</v>
+        <v>26.71103095626052</v>
       </c>
       <c r="D27" t="n">
         <v>103.4918627000001</v>
       </c>
       <c r="E27" t="n">
-        <v>41.58533867899055</v>
+        <v>13.72316176406689</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         <v>7772.332123199998</v>
       </c>
       <c r="C28" t="n">
-        <v>79.33141769000598</v>
+        <v>26.17936783770159</v>
       </c>
       <c r="D28" t="n">
         <v>5.273759</v>
       </c>
       <c r="E28" t="n">
-        <v>41.19207732801506</v>
+        <v>13.59338551824506</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1062,13 +1062,13 @@
         <v>7797.218913449998</v>
       </c>
       <c r="C29" t="n">
-        <v>73.36417472125359</v>
+        <v>24.2101776580136</v>
       </c>
       <c r="D29" t="n">
         <v>44.4998215</v>
       </c>
       <c r="E29" t="n">
-        <v>44.91541264228229</v>
+        <v>14.82208617195318</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1084,13 +1084,13 @@
         <v>7832.233515299998</v>
       </c>
       <c r="C30" t="n">
-        <v>72.06852224068138</v>
+        <v>23.78261233942493</v>
       </c>
       <c r="D30" t="n">
         <v>25.52938220000003</v>
       </c>
       <c r="E30" t="n">
-        <v>43.71040867564592</v>
+        <v>14.42443486296315</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1106,13 +1106,13 @@
         <v>7847.376476799997</v>
       </c>
       <c r="C31" t="n">
-        <v>72.35506230843563</v>
+        <v>23.87717056178394</v>
       </c>
       <c r="D31" t="n">
         <v>4.756540799999994</v>
       </c>
       <c r="E31" t="n">
-        <v>42.65008959782743</v>
+        <v>14.07452956728302</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1128,13 +1128,13 @@
         <v>7862.023453049997</v>
       </c>
       <c r="C32" t="n">
-        <v>72.7292617728381</v>
+        <v>24.00065638503657</v>
       </c>
       <c r="D32" t="n">
         <v>24.53741170000005</v>
       </c>
       <c r="E32" t="n">
-        <v>39.99576988384457</v>
+        <v>13.19860406166875</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1150,13 +1150,13 @@
         <v>7880.747773099996</v>
       </c>
       <c r="C33" t="n">
-        <v>69.33993947831007</v>
+        <v>22.88218002784238</v>
       </c>
       <c r="D33" t="n">
         <v>12.91122840000001</v>
       </c>
       <c r="E33" t="n">
-        <v>42.84803441684884</v>
+        <v>14.13985135756004</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         <v>7909.767836749997</v>
       </c>
       <c r="C34" t="n">
-        <v>70.73612206847113</v>
+        <v>23.3429202825955</v>
       </c>
       <c r="D34" t="n">
         <v>45.12889889999996</v>
       </c>
       <c r="E34" t="n">
-        <v>40.80860569741443</v>
+        <v>13.46683988014679</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1194,13 +1194,13 @@
         <v>7974.042088299997</v>
       </c>
       <c r="C35" t="n">
-        <v>74.15015660176589</v>
+        <v>24.4695516785825</v>
       </c>
       <c r="D35" t="n">
         <v>83.41960419999998</v>
       </c>
       <c r="E35" t="n">
-        <v>34.43308626713258</v>
+        <v>11.36291846815377</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>labels</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -481,6 +486,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>45.07864230711549</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +511,9 @@
           <t>17</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>43.34922543423745</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -525,6 +536,9 @@
           <t>25</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>42.31255307529499</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,6 +561,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>39.75777487433592</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -569,6 +586,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>39.56453211703293</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -591,6 +611,9 @@
           <t>20</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>39.67743773824908</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -613,6 +636,9 @@
           <t>27</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>39.09987589306805</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -635,6 +661,9 @@
           <t>7</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>39.11678889114721</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -657,6 +686,9 @@
           <t>21</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>38.8765490120908</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -679,6 +711,9 @@
           <t>18</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>36.5642939982379</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -701,6 +736,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>36.67367299490095</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -723,6 +761,9 @@
           <t>30</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>36.42649898563644</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -745,6 +786,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>36.33395656639212</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -767,6 +811,9 @@
           <t>31</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>36.27870384106681</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -789,6 +836,9 @@
           <t>24</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>36.24546284468998</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -811,6 +861,9 @@
           <t>15</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>37.04919574024163</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -833,6 +886,9 @@
           <t>16</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>35.79880627938264</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -855,6 +911,9 @@
           <t>28</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>35.5090134090472</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -877,6 +936,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>34.99494069062183</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -899,6 +961,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>34.93844230911457</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -921,6 +986,9 @@
           <t>19</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>34.87692724126494</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -943,6 +1011,9 @@
           <t>13</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>35.7277711437381</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -965,6 +1036,9 @@
           <t>8</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>34.54037560545289</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -987,6 +1061,9 @@
           <t>29</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>34.25993597742644</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1009,6 +1086,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>34.0476199523649</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1031,6 +1111,9 @@
           <t>11</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>33.68479348955618</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1053,6 +1136,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>33.05314102103841</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1075,6 +1161,9 @@
           <t>14</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>32.79660717205189</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1097,6 +1186,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>32.08416103005922</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1119,6 +1211,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>31.8078964891337</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1141,6 +1236,9 @@
           <t>32</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>31.03337533303109</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1163,6 +1261,9 @@
           <t>9</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>31.12791164316041</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1185,6 +1286,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>30.89060798297224</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1206,6 +1310,9 @@
         <is>
           <t>26</t>
         </is>
+      </c>
+      <c r="G35" t="n">
+        <v>29.56410282393481</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>labels</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -481,6 +486,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>46.1460446071759</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +511,9 @@
           <t>17</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>44.70092230282822</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -525,6 +536,9 @@
           <t>25</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>43.60562404167081</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,6 +561,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>40.63331878544989</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -569,6 +586,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>40.43371205890781</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -591,6 +611,9 @@
           <t>20</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>40.69548639989222</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -613,6 +636,9 @@
           <t>27</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>39.95645154108993</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -635,6 +661,9 @@
           <t>7</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>40.21739900729455</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -657,6 +686,9 @@
           <t>21</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>39.99621706789318</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -679,6 +711,9 @@
           <t>18</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>37.44656394901162</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -701,6 +736,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>37.54280781855731</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -723,6 +761,9 @@
           <t>30</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>37.3077558354606</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -745,6 +786,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>37.21437915524302</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -767,6 +811,9 @@
           <t>31</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>37.15542844304534</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -789,6 +836,9 @@
           <t>24</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>37.11934614254483</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -811,6 +861,9 @@
           <t>15</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>37.97338399293842</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -833,6 +886,9 @@
           <t>16</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>36.66309863629139</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -855,6 +911,9 @@
           <t>28</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>36.34877447108163</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -877,6 +936,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>35.72856299714325</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -899,6 +961,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>35.67272658981995</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -921,6 +986,9 @@
           <t>19</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>35.60669524639388</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -943,6 +1011,9 @@
           <t>13</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>36.49575625453265</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -965,6 +1036,9 @@
           <t>8</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>35.26169066012488</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -987,6 +1061,9 @@
           <t>29</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>35.07117462007433</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1009,6 +1086,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>34.74001405997119</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1031,6 +1111,9 @@
           <t>11</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>34.43613184920294</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1053,6 +1136,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>33.70858496901165</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1075,6 +1161,9 @@
           <t>14</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>33.42002481967047</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1097,6 +1186,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>32.69548881453462</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1119,6 +1211,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>32.4188959062482</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1141,6 +1236,9 @@
           <t>32</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>31.6429610745684</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1163,6 +1261,9 @@
           <t>9</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>31.71881797656262</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1185,6 +1286,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>31.55231839269859</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1206,6 +1310,9 @@
         <is>
           <t>26</t>
         </is>
+      </c>
+      <c r="G35" t="n">
+        <v>30.16848098526717</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>labels</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,9 +481,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>45.07864230711549</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,9 +503,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>43.34922543423745</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,9 +525,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>42.31255307529499</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,9 +547,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>39.75777487433592</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,9 +569,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>39.56453211703293</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -611,9 +591,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>39.67743773824908</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -636,9 +613,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>39.09987589306805</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -661,9 +635,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>39.11678889114721</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -686,9 +657,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>38.8765490120908</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -711,9 +679,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>36.5642939982379</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,9 +701,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>36.67367299490095</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -761,9 +723,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>36.42649898563644</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -786,9 +745,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>36.33395656639212</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -811,9 +767,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>36.27870384106681</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -836,9 +789,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>36.24546284468998</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -861,9 +811,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>37.04919574024163</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -886,9 +833,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>35.79880627938264</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -911,9 +855,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>35.5090134090472</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -936,9 +877,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>34.99494069062183</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -961,9 +899,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>34.93844230911457</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -986,9 +921,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>34.87692724126494</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1011,9 +943,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>35.7277711437381</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1036,9 +965,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>34.54037560545289</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1061,9 +987,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>34.25993597742644</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1086,9 +1009,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>34.0476199523649</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1111,9 +1031,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>33.68479348955618</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1136,9 +1053,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>33.05314102103841</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1161,9 +1075,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>32.79660717205189</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1186,9 +1097,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>32.08416103005922</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1211,9 +1119,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>31.8078964891337</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1236,9 +1141,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>31.03337533303109</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1261,9 +1163,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>31.12791164316041</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1286,9 +1185,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>30.89060798297224</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1310,9 +1206,6 @@
         <is>
           <t>26</t>
         </is>
-      </c>
-      <c r="G35" t="n">
-        <v>29.56410282393481</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>labels</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,9 +481,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>46.1460446071759</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,9 +503,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>44.70092230282822</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,9 +525,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>43.60562404167081</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,9 +547,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>40.63331878544989</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,9 +569,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>40.43371205890781</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -611,9 +591,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>40.69548639989222</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -636,9 +613,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>39.95645154108993</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -661,9 +635,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>40.21739900729455</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -686,9 +657,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>39.99621706789318</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -711,9 +679,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>37.44656394901162</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,9 +701,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>37.54280781855731</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -761,9 +723,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>37.3077558354606</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -786,9 +745,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>37.21437915524302</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -811,9 +767,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>37.15542844304534</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -836,9 +789,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>37.11934614254483</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -861,9 +811,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>37.97338399293842</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -886,9 +833,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>36.66309863629139</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -911,9 +855,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>36.34877447108163</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -936,9 +877,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>35.72856299714325</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -961,9 +899,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>35.67272658981995</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -986,9 +921,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>35.60669524639388</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1011,9 +943,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>36.49575625453265</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1036,9 +965,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>35.26169066012488</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1061,9 +987,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>35.07117462007433</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1086,9 +1009,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>34.74001405997119</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1111,9 +1031,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>34.43613184920294</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1136,9 +1053,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>33.70858496901165</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1161,9 +1075,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>33.42002481967047</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1186,9 +1097,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>32.69548881453462</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1211,9 +1119,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>32.4188959062482</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1236,9 +1141,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>31.6429610745684</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1261,9 +1163,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>31.71881797656262</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1286,9 +1185,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>31.55231839269859</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1310,9 +1206,6 @@
         <is>
           <t>26</t>
         </is>
-      </c>
-      <c r="G35" t="n">
-        <v>30.16848098526717</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/visualizations/bar_all_info_cooling.xlsx
+++ b/visualizations/bar_all_info_cooling.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
